--- a/Dataset AAPl transformed.xlsx
+++ b/Dataset AAPl transformed.xlsx
@@ -1,95 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38050\OneDrive\Рабочий стол\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Атирибут</t>
-  </si>
-  <si>
-    <t>Чистая прибыль</t>
-  </si>
-  <si>
-    <t>Исслед и разработки</t>
-  </si>
-  <si>
-    <t>Общие опер. расходы</t>
-  </si>
-  <si>
-    <t>денежные средства от опер. деятельтности</t>
-  </si>
-  <si>
-    <t>денежные средства от инвест. Деятельности</t>
-  </si>
-  <si>
-    <t>9/25/2021</t>
-  </si>
-  <si>
-    <t>9/26/2020</t>
-  </si>
-  <si>
-    <t>9/28/2019</t>
-  </si>
-  <si>
-    <t>9/29/2018</t>
-  </si>
-  <si>
-    <t>9/30/2017</t>
-  </si>
-  <si>
-    <t>9/24/2016</t>
-  </si>
-  <si>
-    <t>9/26/2015</t>
-  </si>
-  <si>
-    <t>9/28/2014</t>
-  </si>
-  <si>
-    <t>9/29/2013</t>
-  </si>
-  <si>
-    <t>9/28/2012</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -104,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -428,239 +420,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.33448215058589681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.41249448262816057</v>
-      </c>
-      <c r="C3">
-        <v>0.82222971833361436</v>
-      </c>
-      <c r="D3">
-        <v>0.61611205915813416</v>
-      </c>
-      <c r="E3">
-        <v>0.70886637407787845</v>
-      </c>
-      <c r="F3">
-        <v>0.41668403250885661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.37852323601740329</v>
-      </c>
-      <c r="C4">
-        <v>0.67970990048912117</v>
-      </c>
-      <c r="D4">
-        <v>0.52104664391353817</v>
-      </c>
-      <c r="E4">
-        <v>0.44544308525539278</v>
-      </c>
-      <c r="F4">
-        <v>0.81891701264767647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.44591399205498439</v>
-      </c>
-      <c r="C5">
-        <v>0.56844886715016574</v>
-      </c>
-      <c r="D5">
-        <v>0.50882473770699033</v>
-      </c>
-      <c r="E5">
-        <v>0.63320571481931087</v>
-      </c>
-      <c r="F5">
-        <v>0.57982944071301479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.26967337158711141</v>
-      </c>
-      <c r="C6">
-        <v>0.41907010738179562</v>
-      </c>
-      <c r="D6">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.5299955861025285</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8577837746668914</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6928896473265074</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7670930992623028</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.4124944826281606</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8222297183336144</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6161120591581342</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7088663740778784</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.4088177060344284</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7153246753246751</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5554152445961322</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5097730880567748</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.3785232360174033</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6797099004891212</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5210466439135382</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4454430852553928</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.4384947348508733</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5978240287850676</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5181428390848188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6085191894668038</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4459139920549844</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5684488671501657</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5088247377069903</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6332057148193109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.3034376442398638</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.45482089166245</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3412597143218301</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3821389858997104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.2696733715871114</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4190701073817956</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.2970389331310832</v>
       </c>
-      <c r="E6">
-        <v>0.32554393500793721</v>
-      </c>
-      <c r="F6">
-        <v>7.8795505185707659E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+      <c r="D10" t="n">
+        <v>0.3255439350079372</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.2428301607919792</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3571361016472704</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2283012413095691</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.373766484265571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>0.2276782899300081</v>
       </c>
-      <c r="C7">
+      <c r="B12" t="n">
         <v>0.3327149041434756</v>
       </c>
-      <c r="D7">
+      <c r="C12" t="n">
         <v>0.2000616230565038</v>
       </c>
-      <c r="E7">
-        <v>0.37167335885703601</v>
-      </c>
-      <c r="F7">
-        <v>8.2554542102816542E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.34844567753326178</v>
-      </c>
-      <c r="C8">
-        <v>0.22151009163996169</v>
-      </c>
-      <c r="D8">
-        <v>0.25433731513083058</v>
-      </c>
-      <c r="E8">
-        <v>0.72266318050238132</v>
-      </c>
-      <c r="F8">
+      <c r="D12" t="n">
+        <v>0.371673358857036</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3273225741850053</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2486352936414235</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2491301003665785</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6528838412550193</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.3484456775332618</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2215100916399617</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2543373151308306</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7226631805023813</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1697081619774261</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1358124019564851</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04982602007331582</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3061860688392939</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.1303045589255312</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1076066790352505</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.13030455892553119</v>
-      </c>
-      <c r="C9">
-        <v>0.10760667903525049</v>
-      </c>
-      <c r="D9">
+      <c r="D16" t="n">
+        <v>0.2195116257353629</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.03394163239548526</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.08171917910383988</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2454221626798128</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06123721376785896</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>0.2195116257353629</v>
-      </c>
-      <c r="F9">
-        <v>0.27018578779475177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
+      <c r="B18" t="n">
+        <v>0.06819587339067859</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2943211983314373</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>6.8195873390678591E-2</v>
-      </c>
-      <c r="D10">
-        <v>0.29432119833143727</v>
-      </c>
-      <c r="E10">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.1860682306344661</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01634383582076798</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1204154905564405</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3700399537256516</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.2240998801942115</v>
+      </c>
+      <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>0.15638875975826749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>0.22409988019421151</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>8.9163822525597292E-2</v>
-      </c>
-      <c r="E11">
-        <v>0.44724063871509961</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="C20" t="n">
+        <v>0.08916382252559729</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4472406387150996</v>
       </c>
     </row>
   </sheetData>
